--- a/assets/ChartBuilder/public/Data/Backups/Catalyst/CTV/ctv.xlsx
+++ b/assets/ChartBuilder/public/Data/Backups/Catalyst/CTV/ctv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Dropbox (Catalyst Funds)\Marketing Team Files\Marketing Materials\AutoCharts&amp;Tables\Backup Files\Catalyst\CTV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Marketing Team Files\Marketing Materials\AutoCharts&amp;Tables\Backup Files\Catalyst\CTV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6A909E-18A7-4B14-81AA-65C5775E5D1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3632ED8E-3FB7-44D0-9459-18DBDB52748E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="843" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="843" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CTV Fact Sheet Backup" sheetId="1" r:id="rId1"/>
@@ -1678,6 +1678,39 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1731,39 +1764,6 @@
     </xf>
     <xf numFmtId="43" fontId="25" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2348,34 +2348,34 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="69" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="63" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="63" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="71" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="63" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="71" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" style="67" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="14"/>
+    <col min="5" max="5" width="8.28515625" style="63" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="71" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="67" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="14"/>
     <col min="9" max="9" width="19" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" style="14" customWidth="1"/>
-    <col min="11" max="11" width="9.88671875" style="15" customWidth="1"/>
-    <col min="12" max="12" width="7.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="14" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" style="15" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" style="15" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="15" customWidth="1"/>
-    <col min="15" max="15" width="9.109375" style="14" customWidth="1"/>
-    <col min="16" max="16" width="4.33203125" style="14" customWidth="1"/>
-    <col min="17" max="17" width="9.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.44140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.5546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.109375" style="14"/>
+    <col min="15" max="15" width="9.140625" style="14" customWidth="1"/>
+    <col min="16" max="16" width="4.28515625" style="14" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2403,13 +2403,13 @@
       <c r="J1" s="11">
         <v>44196</v>
       </c>
-      <c r="Q1" s="156" t="s">
+      <c r="Q1" s="167" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="157"/>
-      <c r="S1" s="158"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R1" s="168"/>
+      <c r="S1" s="169"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>38929</v>
       </c>
@@ -2431,18 +2431,18 @@
       <c r="J2" s="101">
         <v>7.2300000000000001E-4</v>
       </c>
-      <c r="K2" s="172"/>
-      <c r="L2" s="173"/>
-      <c r="M2" s="173"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
       <c r="N2" s="153"/>
       <c r="O2" s="19"/>
-      <c r="Q2" s="159" t="s">
+      <c r="Q2" s="170" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="160"/>
-      <c r="S2" s="161"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R2" s="171"/>
+      <c r="S2" s="172"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <f>EOMONTH(A2,1)</f>
         <v>38960</v>
@@ -2479,13 +2479,13 @@
       <c r="L3" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" s="162" t="s">
+      <c r="Q3" s="173" t="s">
         <v>36</v>
       </c>
-      <c r="R3" s="163"/>
-      <c r="S3" s="164"/>
-    </row>
-    <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R3" s="174"/>
+      <c r="S3" s="175"/>
+    </row>
+    <row r="4" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <f t="shared" ref="A4:A67" si="1">EOMONTH(A3,1)</f>
         <v>38990</v>
@@ -2511,13 +2511,13 @@
       <c r="G4" s="66">
         <v>9.089961278559322E-3</v>
       </c>
-      <c r="Q4" s="165" t="s">
+      <c r="Q4" s="176" t="s">
         <v>37</v>
       </c>
-      <c r="R4" s="166"/>
-      <c r="S4" s="167"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R4" s="177"/>
+      <c r="S4" s="178"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <f t="shared" si="1"/>
         <v>39021</v>
@@ -2543,18 +2543,18 @@
       <c r="G5" s="66">
         <v>4.95143951444319E-2</v>
       </c>
-      <c r="I5" s="180" t="s">
+      <c r="I5" s="162" t="s">
         <v>65</v>
       </c>
-      <c r="J5" s="181"/>
-      <c r="K5" s="181"/>
-      <c r="L5" s="181"/>
-      <c r="M5" s="181"/>
-      <c r="N5" s="181"/>
-      <c r="O5" s="182"/>
+      <c r="J5" s="163"/>
+      <c r="K5" s="163"/>
+      <c r="L5" s="163"/>
+      <c r="M5" s="163"/>
+      <c r="N5" s="163"/>
+      <c r="O5" s="164"/>
       <c r="P5" s="86"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <f t="shared" si="1"/>
         <v>39051</v>
@@ -2583,7 +2583,7 @@
       <c r="I6" s="32"/>
       <c r="O6" s="87"/>
     </row>
-    <row r="7" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <f t="shared" si="1"/>
         <v>39082</v>
@@ -2629,7 +2629,7 @@
       <c r="N7" s="72"/>
       <c r="O7" s="87"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <f t="shared" si="1"/>
         <v>39113</v>
@@ -2678,20 +2678,20 @@
       <c r="O8" s="87"/>
       <c r="R8" s="76"/>
       <c r="S8" s="77"/>
-      <c r="T8" s="170" t="str">
+      <c r="T8" s="181" t="str">
         <f>B1</f>
         <v>CTVAX</v>
       </c>
-      <c r="U8" s="168" t="str">
+      <c r="U8" s="179" t="str">
         <f>D1</f>
         <v>SP500TR</v>
       </c>
-      <c r="V8" s="154" t="str">
+      <c r="V8" s="165" t="str">
         <f>F1</f>
         <v>SP600 TR</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <f t="shared" si="1"/>
         <v>39141</v>
@@ -2738,11 +2738,11 @@
       <c r="O9" s="87"/>
       <c r="R9" s="78"/>
       <c r="S9" s="79"/>
-      <c r="T9" s="171"/>
-      <c r="U9" s="169"/>
-      <c r="V9" s="155"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="T9" s="182"/>
+      <c r="U9" s="180"/>
+      <c r="V9" s="166"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <f t="shared" si="1"/>
         <v>39172</v>
@@ -2807,7 +2807,7 @@
         <v>33446.014438242841</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <f t="shared" si="1"/>
         <v>39202</v>
@@ -2872,7 +2872,7 @@
         <v>33446.014438242841</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <f t="shared" si="1"/>
         <v>39233</v>
@@ -2939,7 +2939,7 @@
         <v>29764.731126572628</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <f t="shared" si="1"/>
         <v>39263</v>
@@ -3006,7 +3006,7 @@
         <v>20770.22870827794</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <f t="shared" si="1"/>
         <v>39294</v>
@@ -3055,7 +3055,7 @@
         <v>12065.527030393308</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <f t="shared" si="1"/>
         <v>39325</v>
@@ -3128,7 +3128,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16">
         <f t="shared" si="1"/>
         <v>39355</v>
@@ -3201,7 +3201,7 @@
         <v>37221.094534234719</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <f t="shared" si="1"/>
         <v>39386</v>
@@ -3258,7 +3258,7 @@
       <c r="R17" s="85"/>
       <c r="S17" s="85"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <f t="shared" si="1"/>
         <v>39416</v>
@@ -3312,8 +3312,8 @@
         <v>10.04961735148029</v>
       </c>
       <c r="P18" s="19"/>
-      <c r="R18" s="178"/>
-      <c r="S18" s="179"/>
+      <c r="R18" s="160"/>
+      <c r="S18" s="161"/>
       <c r="T18" s="36" t="str">
         <f>T8</f>
         <v>CTVAX</v>
@@ -3327,7 +3327,7 @@
         <v>SP600 TR</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <f t="shared" si="1"/>
         <v>39447</v>
@@ -3382,11 +3382,11 @@
         <v>9.5449370896393049</v>
       </c>
       <c r="P19" s="19"/>
-      <c r="R19" s="174" t="str">
+      <c r="R19" s="156" t="str">
         <f>R10</f>
         <v>YTD</v>
       </c>
-      <c r="S19" s="175"/>
+      <c r="S19" s="157"/>
       <c r="T19" s="31">
         <f>T16/T10-1</f>
         <v>1.2865282117257903E-2</v>
@@ -3400,7 +3400,7 @@
         <v>0.1128708505153122</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16">
         <f t="shared" si="1"/>
         <v>39478</v>
@@ -3454,11 +3454,11 @@
         <v>3.1199999999999997</v>
       </c>
       <c r="P20" s="19"/>
-      <c r="R20" s="174" t="str">
+      <c r="R20" s="156" t="str">
         <f>R11</f>
         <v>1YR</v>
       </c>
-      <c r="S20" s="175"/>
+      <c r="S20" s="157"/>
       <c r="T20" s="31">
         <f>T16/T11-1</f>
         <v>1.2865282117257903E-2</v>
@@ -3472,7 +3472,7 @@
         <v>0.1128708505153122</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <f t="shared" si="1"/>
         <v>39507</v>
@@ -3500,11 +3500,11 @@
       </c>
       <c r="K21" s="14"/>
       <c r="O21" s="15"/>
-      <c r="R21" s="174" t="str">
+      <c r="R21" s="156" t="str">
         <f>R12</f>
         <v>3YR</v>
       </c>
-      <c r="S21" s="175"/>
+      <c r="S21" s="157"/>
       <c r="T21" s="31">
         <f>T16/T12-1</f>
         <v>-7.7000892126398268E-2</v>
@@ -3518,7 +3518,7 @@
         <v>0.25051002059969507</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <f t="shared" si="1"/>
         <v>39538</v>
@@ -3548,10 +3548,10 @@
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
       <c r="N22" s="14"/>
-      <c r="R22" s="174" t="s">
+      <c r="R22" s="156" t="s">
         <v>17</v>
       </c>
-      <c r="S22" s="175"/>
+      <c r="S22" s="157"/>
       <c r="T22" s="31">
         <f>(1+T21)^(12/36)-1</f>
         <v>-2.6355472717729089E-2</v>
@@ -3565,7 +3565,7 @@
         <v>7.7363832570984226E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <f t="shared" si="1"/>
         <v>39568</v>
@@ -3615,11 +3615,11 @@
       <c r="O23" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="R23" s="174" t="str">
+      <c r="R23" s="156" t="str">
         <f>R13</f>
         <v>5YR</v>
       </c>
-      <c r="S23" s="175"/>
+      <c r="S23" s="157"/>
       <c r="T23" s="31">
         <f>T16/T13-1</f>
         <v>0.16801037666268215</v>
@@ -3633,7 +3633,7 @@
         <v>0.79204066825707664</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <f t="shared" si="1"/>
         <v>39599</v>
@@ -3684,10 +3684,10 @@
         <f>T28</f>
         <v>3.5489692733656764E-2</v>
       </c>
-      <c r="R24" s="174" t="s">
+      <c r="R24" s="156" t="s">
         <v>55</v>
       </c>
-      <c r="S24" s="175"/>
+      <c r="S24" s="157"/>
       <c r="T24" s="31">
         <f>(1+T23)^(12/60)-1</f>
         <v>3.1547759730933267E-2</v>
@@ -3701,7 +3701,7 @@
         <v>0.12374965717014397</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <f t="shared" si="1"/>
         <v>39629</v>
@@ -3748,11 +3748,11 @@
       <c r="O25" s="140">
         <v>2.81E-2</v>
       </c>
-      <c r="R25" s="174" t="str">
+      <c r="R25" s="156" t="str">
         <f>R14</f>
         <v>10YR</v>
       </c>
-      <c r="S25" s="175"/>
+      <c r="S25" s="157"/>
       <c r="T25" s="31">
         <f>T16/T14-1</f>
         <v>2.0747103160099201E-2</v>
@@ -3766,7 +3766,7 @@
         <v>2.0849124485382218</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <f t="shared" si="1"/>
         <v>39660</v>
@@ -3819,10 +3819,10 @@
         <f>U28</f>
         <v>0.10049617351480289</v>
       </c>
-      <c r="R26" s="174" t="s">
+      <c r="R26" s="156" t="s">
         <v>64</v>
       </c>
-      <c r="S26" s="175"/>
+      <c r="S26" s="157"/>
       <c r="T26" s="31">
         <f>(1+T25)^(12/120)-1</f>
         <v>2.0555911628146184E-3</v>
@@ -3836,7 +3836,7 @@
         <v>0.11924273562512711</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <f t="shared" si="1"/>
         <v>39691</v>
@@ -3890,10 +3890,10 @@
         <f>V28</f>
         <v>9.5449370896393049E-2</v>
       </c>
-      <c r="R27" s="174" t="s">
+      <c r="R27" s="156" t="s">
         <v>16</v>
       </c>
-      <c r="S27" s="175"/>
+      <c r="S27" s="157"/>
       <c r="T27" s="31">
         <f>($T$16-T15)/T15</f>
         <v>0.65329999999999999</v>
@@ -3907,7 +3907,7 @@
         <v>2.7221094534234718</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="16">
         <f t="shared" si="1"/>
         <v>39721</v>
@@ -3954,10 +3954,10 @@
       <c r="O28" s="140">
         <v>3.1199999999999999E-2</v>
       </c>
-      <c r="R28" s="176" t="s">
+      <c r="R28" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="S28" s="177"/>
+      <c r="S28" s="159"/>
       <c r="T28" s="38">
         <f>(1+T27)^(12/$J$3)-1</f>
         <v>3.5489692733656764E-2</v>
@@ -3971,7 +3971,7 @@
         <v>9.5449370896393049E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <f t="shared" si="1"/>
         <v>39752</v>
@@ -4005,7 +4005,7 @@
       <c r="N29" s="47"/>
       <c r="O29" s="15"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <f t="shared" si="1"/>
         <v>39782</v>
@@ -4039,7 +4039,7 @@
       <c r="N30" s="47"/>
       <c r="O30" s="15"/>
     </row>
-    <row r="31" spans="1:22" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <f t="shared" si="1"/>
         <v>39813</v>
@@ -4068,7 +4068,7 @@
       <c r="M31" s="14"/>
       <c r="N31" s="14"/>
     </row>
-    <row r="32" spans="1:22" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
         <f t="shared" si="1"/>
         <v>39844</v>
@@ -4097,7 +4097,7 @@
       <c r="M32" s="14"/>
       <c r="N32" s="14"/>
     </row>
-    <row r="33" spans="1:15" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <f t="shared" si="1"/>
         <v>39872</v>
@@ -4126,7 +4126,7 @@
       <c r="M33" s="14"/>
       <c r="N33" s="14"/>
     </row>
-    <row r="34" spans="1:15" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <f t="shared" si="1"/>
         <v>39903</v>
@@ -4155,7 +4155,7 @@
       <c r="M34" s="14"/>
       <c r="N34" s="14"/>
     </row>
-    <row r="35" spans="1:15" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
         <f t="shared" si="1"/>
         <v>39933</v>
@@ -4184,7 +4184,7 @@
       <c r="M35" s="14"/>
       <c r="N35" s="14"/>
     </row>
-    <row r="36" spans="1:15" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
         <f t="shared" si="1"/>
         <v>39964</v>
@@ -4214,7 +4214,7 @@
       <c r="N36" s="14"/>
       <c r="O36" s="46"/>
     </row>
-    <row r="37" spans="1:15" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
         <f t="shared" si="1"/>
         <v>39994</v>
@@ -4248,7 +4248,7 @@
       <c r="N37" s="46"/>
       <c r="O37" s="46"/>
     </row>
-    <row r="38" spans="1:15" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
         <f t="shared" si="1"/>
         <v>40025</v>
@@ -4281,7 +4281,7 @@
       <c r="M38" s="46"/>
       <c r="N38" s="46"/>
     </row>
-    <row r="39" spans="1:15" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
         <f t="shared" si="1"/>
         <v>40056</v>
@@ -4310,7 +4310,7 @@
       <c r="M39" s="14"/>
       <c r="N39" s="14"/>
     </row>
-    <row r="40" spans="1:15" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
         <f t="shared" si="1"/>
         <v>40086</v>
@@ -4341,7 +4341,7 @@
       <c r="M40" s="14"/>
       <c r="N40" s="14"/>
     </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
         <f t="shared" si="1"/>
         <v>40117</v>
@@ -4372,7 +4372,7 @@
       <c r="M41" s="14"/>
       <c r="N41" s="14"/>
     </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
         <f t="shared" si="1"/>
         <v>40147</v>
@@ -4404,7 +4404,7 @@
       <c r="M42" s="43"/>
       <c r="N42" s="43"/>
     </row>
-    <row r="43" spans="1:15" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
         <f t="shared" si="1"/>
         <v>40178</v>
@@ -4436,7 +4436,7 @@
       <c r="M43" s="43"/>
       <c r="N43" s="43"/>
     </row>
-    <row r="44" spans="1:15" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
         <f t="shared" si="1"/>
         <v>40209</v>
@@ -4468,7 +4468,7 @@
       <c r="M44" s="43"/>
       <c r="N44" s="43"/>
     </row>
-    <row r="45" spans="1:15" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <f t="shared" si="1"/>
         <v>40237</v>
@@ -4500,7 +4500,7 @@
       <c r="M45" s="43"/>
       <c r="N45" s="43"/>
     </row>
-    <row r="46" spans="1:15" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
         <f t="shared" si="1"/>
         <v>40268</v>
@@ -4532,7 +4532,7 @@
       <c r="M46" s="43"/>
       <c r="N46" s="43"/>
     </row>
-    <row r="47" spans="1:15" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
         <f t="shared" si="1"/>
         <v>40298</v>
@@ -4564,7 +4564,7 @@
       <c r="M47" s="43"/>
       <c r="N47" s="43"/>
     </row>
-    <row r="48" spans="1:15" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
         <f t="shared" si="1"/>
         <v>40329</v>
@@ -4596,7 +4596,7 @@
       <c r="M48" s="43"/>
       <c r="N48" s="43"/>
     </row>
-    <row r="49" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
         <f t="shared" si="1"/>
         <v>40359</v>
@@ -4628,7 +4628,7 @@
       <c r="M49" s="43"/>
       <c r="N49" s="43"/>
     </row>
-    <row r="50" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
         <f t="shared" si="1"/>
         <v>40390</v>
@@ -4660,7 +4660,7 @@
       <c r="M50" s="43"/>
       <c r="N50" s="43"/>
     </row>
-    <row r="51" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" s="16">
         <f t="shared" si="1"/>
         <v>40421</v>
@@ -4692,7 +4692,7 @@
       <c r="M51" s="43"/>
       <c r="N51" s="43"/>
     </row>
-    <row r="52" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
         <f t="shared" si="1"/>
         <v>40451</v>
@@ -4724,7 +4724,7 @@
       <c r="M52" s="44"/>
       <c r="N52" s="44"/>
     </row>
-    <row r="53" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16">
         <f t="shared" si="1"/>
         <v>40482</v>
@@ -4756,7 +4756,7 @@
       <c r="M53" s="44"/>
       <c r="N53" s="44"/>
     </row>
-    <row r="54" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16">
         <f t="shared" si="1"/>
         <v>40512</v>
@@ -4788,7 +4788,7 @@
       <c r="M54" s="44"/>
       <c r="N54" s="44"/>
     </row>
-    <row r="55" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16">
         <f t="shared" si="1"/>
         <v>40543</v>
@@ -4820,7 +4820,7 @@
       <c r="M55" s="44"/>
       <c r="N55" s="44"/>
     </row>
-    <row r="56" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16">
         <f t="shared" si="1"/>
         <v>40574</v>
@@ -4852,7 +4852,7 @@
       <c r="M56" s="44"/>
       <c r="N56" s="44"/>
     </row>
-    <row r="57" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16">
         <f t="shared" si="1"/>
         <v>40602</v>
@@ -4884,7 +4884,7 @@
       <c r="M57" s="44"/>
       <c r="N57" s="44"/>
     </row>
-    <row r="58" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16">
         <f t="shared" si="1"/>
         <v>40633</v>
@@ -4916,7 +4916,7 @@
       <c r="M58" s="44"/>
       <c r="N58" s="44"/>
     </row>
-    <row r="59" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16">
         <f t="shared" si="1"/>
         <v>40663</v>
@@ -4948,7 +4948,7 @@
       <c r="M59" s="44"/>
       <c r="N59" s="44"/>
     </row>
-    <row r="60" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16">
         <f t="shared" si="1"/>
         <v>40694</v>
@@ -4980,7 +4980,7 @@
       <c r="M60" s="44"/>
       <c r="N60" s="44"/>
     </row>
-    <row r="61" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16">
         <f t="shared" si="1"/>
         <v>40724</v>
@@ -5012,7 +5012,7 @@
       <c r="M61" s="44"/>
       <c r="N61" s="44"/>
     </row>
-    <row r="62" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16">
         <f t="shared" si="1"/>
         <v>40755</v>
@@ -5044,7 +5044,7 @@
       <c r="M62" s="44"/>
       <c r="N62" s="44"/>
     </row>
-    <row r="63" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16">
         <f t="shared" si="1"/>
         <v>40786</v>
@@ -5076,7 +5076,7 @@
       <c r="M63" s="44"/>
       <c r="N63" s="44"/>
     </row>
-    <row r="64" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16">
         <f t="shared" si="1"/>
         <v>40816</v>
@@ -5108,7 +5108,7 @@
       <c r="M64" s="44"/>
       <c r="N64" s="44"/>
     </row>
-    <row r="65" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A65" s="16">
         <f t="shared" si="1"/>
         <v>40847</v>
@@ -5140,7 +5140,7 @@
       <c r="M65" s="44"/>
       <c r="N65" s="44"/>
     </row>
-    <row r="66" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A66" s="16">
         <f t="shared" si="1"/>
         <v>40877</v>
@@ -5172,7 +5172,7 @@
       <c r="M66" s="44"/>
       <c r="N66" s="44"/>
     </row>
-    <row r="67" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A67" s="16">
         <f t="shared" si="1"/>
         <v>40908</v>
@@ -5204,7 +5204,7 @@
       <c r="M67" s="44"/>
       <c r="N67" s="44"/>
     </row>
-    <row r="68" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A68" s="16">
         <f t="shared" ref="A68:A131" si="14">EOMONTH(A67,1)</f>
         <v>40939</v>
@@ -5236,7 +5236,7 @@
       <c r="M68" s="44"/>
       <c r="N68" s="44"/>
     </row>
-    <row r="69" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A69" s="16">
         <f t="shared" si="14"/>
         <v>40968</v>
@@ -5268,7 +5268,7 @@
       <c r="M69" s="44"/>
       <c r="N69" s="44"/>
     </row>
-    <row r="70" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A70" s="16">
         <f t="shared" si="14"/>
         <v>40999</v>
@@ -5295,7 +5295,7 @@
         <v>2.8991435700818524E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A71" s="16">
         <f t="shared" si="14"/>
         <v>41029</v>
@@ -5322,7 +5322,7 @@
         <v>-1.2620029417823253E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A72" s="16">
         <f t="shared" si="14"/>
         <v>41060</v>
@@ -5349,7 +5349,7 @@
         <v>-6.2704283502494462E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A73" s="16">
         <f t="shared" si="14"/>
         <v>41090</v>
@@ -5376,7 +5376,7 @@
         <v>4.1836617144285215E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A74" s="16">
         <f t="shared" si="14"/>
         <v>41121</v>
@@ -5403,7 +5403,7 @@
         <v>-7.6632445379002379E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A75" s="16">
         <f t="shared" si="14"/>
         <v>41152</v>
@@ -5430,7 +5430,7 @@
         <v>3.7888788793893013E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A76" s="16">
         <f t="shared" si="14"/>
         <v>41182</v>
@@ -5457,7 +5457,7 @@
         <v>2.3324156278033747E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A77" s="16">
         <f t="shared" si="14"/>
         <v>41213</v>
@@ -5484,7 +5484,7 @@
         <v>-2.0303106279239702E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A78" s="16">
         <f t="shared" si="14"/>
         <v>41243</v>
@@ -5511,7 +5511,7 @@
         <v>9.9825939861224455E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A79" s="16">
         <f t="shared" si="14"/>
         <v>41274</v>
@@ -5538,7 +5538,7 @@
         <v>3.3033880303849905E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A80" s="16">
         <f t="shared" si="14"/>
         <v>41305</v>
@@ -5565,7 +5565,7 @@
         <v>5.7786413982301221E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A81" s="16">
         <f t="shared" si="14"/>
         <v>41333</v>
@@ -5592,7 +5592,7 @@
         <v>1.407593671008911E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A82" s="16">
         <f t="shared" si="14"/>
         <v>41364</v>
@@ -5619,7 +5619,7 @@
         <v>4.2358478020427359E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A83" s="16">
         <f t="shared" si="14"/>
         <v>41394</v>
@@ -5646,7 +5646,7 @@
         <v>-2.6589413710428333E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A84" s="16">
         <f t="shared" si="14"/>
         <v>41425</v>
@@ -5673,7 +5673,7 @@
         <v>4.3477040004492817E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A85" s="16">
         <f t="shared" si="14"/>
         <v>41455</v>
@@ -5700,7 +5700,7 @@
         <v>-1.4591163376179717E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A86" s="16">
         <f t="shared" si="14"/>
         <v>41486</v>
@@ -5727,7 +5727,7 @@
         <v>6.8446615023910029E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A87" s="16">
         <f t="shared" si="14"/>
         <v>41517</v>
@@ -5754,7 +5754,7 @@
         <v>-2.4362457769264267E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A88" s="16">
         <f t="shared" si="14"/>
         <v>41547</v>
@@ -5781,7 +5781,7 @@
         <v>6.2266158996801435E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A89" s="16">
         <f t="shared" si="14"/>
         <v>41578</v>
@@ -5808,7 +5808,7 @@
         <v>3.6075964770431845E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A90" s="16">
         <f t="shared" si="14"/>
         <v>41608</v>
@@ -5835,7 +5835,7 @@
         <v>4.4956987451193253E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A91" s="16">
         <f t="shared" si="14"/>
         <v>41639</v>
@@ -5862,7 +5862,7 @@
         <v>1.4472898750902186E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A92" s="16">
         <f t="shared" si="14"/>
         <v>41670</v>
@@ -5889,7 +5889,7 @@
         <v>-3.8569443093729561E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A93" s="16">
         <f t="shared" si="14"/>
         <v>41698</v>
@@ -5916,7 +5916,7 @@
         <v>4.4567449769268963E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A94" s="16">
         <f t="shared" si="14"/>
         <v>41729</v>
@@ -5943,7 +5943,7 @@
         <v>6.9796262087782335E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A95" s="16">
         <f t="shared" si="14"/>
         <v>41759</v>
@@ -5970,7 +5970,7 @@
         <v>-2.7910022799839784E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A96" s="16">
         <f t="shared" si="14"/>
         <v>41790</v>
@@ -5997,7 +5997,7 @@
         <v>2.6998293196955903E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A97" s="16">
         <f t="shared" si="14"/>
         <v>41820</v>
@@ -6024,7 +6024,7 @@
         <v>4.7146023915826341E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A98" s="16">
         <f t="shared" si="14"/>
         <v>41851</v>
@@ -6051,7 +6051,7 @@
         <v>-5.4946116525696698E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A99" s="16">
         <f t="shared" si="14"/>
         <v>41882</v>
@@ -6078,7 +6078,7 @@
         <v>4.2950259021586223E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A100" s="16">
         <f t="shared" si="14"/>
         <v>41912</v>
@@ -6105,7 +6105,7 @@
         <v>-5.3677282896862355E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A101" s="16">
         <f t="shared" si="14"/>
         <v>41943</v>
@@ -6132,7 +6132,7 @@
         <v>7.0880398118857713E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A102" s="16">
         <f t="shared" si="14"/>
         <v>41973</v>
@@ -6159,7 +6159,7 @@
         <v>-2.7486173332440522E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A103" s="16">
         <f t="shared" si="14"/>
         <v>42004</v>
@@ -6186,7 +6186,7 @@
         <v>2.8576046742735395E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A104" s="16">
         <f t="shared" si="14"/>
         <v>42035</v>
@@ -6213,7 +6213,7 @@
         <v>-3.4945645151715055E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A105" s="16">
         <f t="shared" si="14"/>
         <v>42063</v>
@@ -6240,7 +6240,7 @@
         <v>6.0295082599969074E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A106" s="16">
         <f t="shared" si="14"/>
         <v>42094</v>
@@ -6267,7 +6267,7 @@
         <v>1.6024226318591683E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A107" s="16">
         <f t="shared" si="14"/>
         <v>42124</v>
@@ -6294,7 +6294,7 @@
         <v>-2.32519342089057E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A108" s="16">
         <f t="shared" si="14"/>
         <v>42155</v>
@@ -6321,7 +6321,7 @@
         <v>1.5319310883198822E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A109" s="16">
         <f t="shared" si="14"/>
         <v>42185</v>
@@ -6348,7 +6348,7 @@
         <v>1.0292110322932535E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A110" s="16">
         <f t="shared" si="14"/>
         <v>42216</v>
@@ -6375,7 +6375,7 @@
         <v>-8.4729947040989018E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A111" s="16">
         <f t="shared" si="14"/>
         <v>42247</v>
@@ -6402,7 +6402,7 @@
         <v>-5.1767180119491218E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A112" s="16">
         <f t="shared" si="14"/>
         <v>42277</v>
@@ -6429,7 +6429,7 @@
         <v>-3.4988648924916488E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A113" s="16">
         <f t="shared" si="14"/>
         <v>42308</v>
@@ -6456,7 +6456,7 @@
         <v>6.0957539971400188E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A114" s="16">
         <f t="shared" si="14"/>
         <v>42338</v>
@@ -6483,7 +6483,7 @@
         <v>2.6783641209959796E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A115" s="16">
         <f t="shared" si="14"/>
         <v>42369</v>
@@ -6510,7 +6510,7 @@
         <v>-4.7853197731936747E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A116" s="16">
         <f t="shared" si="14"/>
         <v>42400</v>
@@ -6537,7 +6537,7 @@
         <v>-6.1679239928229657E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A117" s="16">
         <f t="shared" si="14"/>
         <v>42429</v>
@@ -6564,7 +6564,7 @@
         <v>1.1174541786838299E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A118" s="16">
         <f t="shared" si="14"/>
         <v>42460</v>
@@ -6591,7 +6591,7 @@
         <v>8.1973019415057857E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A119" s="16">
         <f t="shared" si="14"/>
         <v>42490</v>
@@ -6618,7 +6618,7 @@
         <v>1.1741816528766824E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A120" s="16">
         <f t="shared" si="14"/>
         <v>42521</v>
@@ -6645,7 +6645,7 @@
         <v>1.6584578377166981E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A121" s="16">
         <f t="shared" si="14"/>
         <v>42551</v>
@@ -6672,7 +6672,7 @@
         <v>6.0719274292770908E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A122" s="16">
         <f t="shared" si="14"/>
         <v>42582</v>
@@ -6699,7 +6699,7 @@
         <v>5.0905851171452632E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A123" s="16">
         <f t="shared" si="14"/>
         <v>42613</v>
@@ -6726,7 +6726,7 @@
         <v>1.356434126997641E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A124" s="16">
         <f t="shared" si="14"/>
         <v>42643</v>
@@ -6755,7 +6755,7 @@
       <c r="I124" s="60"/>
       <c r="J124" s="60"/>
     </row>
-    <row r="125" spans="1:10" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A125" s="16">
         <f t="shared" si="14"/>
         <v>42674</v>
@@ -6784,7 +6784,7 @@
       <c r="I125" s="60"/>
       <c r="J125" s="60"/>
     </row>
-    <row r="126" spans="1:10" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A126" s="16">
         <f t="shared" si="14"/>
         <v>42704</v>
@@ -6813,7 +6813,7 @@
       <c r="I126" s="60"/>
       <c r="J126" s="60"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="16">
         <f t="shared" si="14"/>
         <v>42735</v>
@@ -6842,7 +6842,7 @@
       <c r="I127" s="60"/>
       <c r="J127" s="60"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="16">
         <f t="shared" si="14"/>
         <v>42766</v>
@@ -6869,7 +6869,7 @@
         <v>-3.9783592270723478E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="16">
         <f t="shared" si="14"/>
         <v>42794</v>
@@ -6896,7 +6896,7 @@
         <v>1.5918592667536924E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="16">
         <f t="shared" si="14"/>
         <v>42825</v>
@@ -6923,7 +6923,7 @@
         <v>-1.223081088699729E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="16">
         <f t="shared" si="14"/>
         <v>42855</v>
@@ -6950,7 +6950,7 @@
         <v>9.0223330130303481E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="16">
         <f t="shared" ref="A132" si="18">EOMONTH(A131,1)</f>
         <v>42886</v>
@@ -6977,7 +6977,7 @@
         <v>-2.1274853402992067E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="16">
         <f>EOMONTH(A132,1)</f>
         <v>42916</v>
@@ -7004,7 +7004,7 @@
         <v>2.9935103943683261E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="16">
         <f t="shared" ref="A134:A175" si="21">EOMONTH(A133,1)</f>
         <v>42947</v>
@@ -7031,7 +7031,7 @@
         <v>9.6856079587930299E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="16">
         <f t="shared" si="21"/>
         <v>42978</v>
@@ -7058,7 +7058,7 @@
         <v>-2.5651943581092684E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="16">
         <f t="shared" si="21"/>
         <v>43008</v>
@@ -7085,7 +7085,7 @@
         <v>7.708723216911828E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="16">
         <f t="shared" si="21"/>
         <v>43039</v>
@@ -7112,7 +7112,7 @@
         <v>9.4860543285937293E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="16">
         <f t="shared" si="21"/>
         <v>43069</v>
@@ -7139,7 +7139,7 @@
         <v>3.5198323369235895E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="16">
         <f t="shared" si="21"/>
         <v>43100</v>
@@ -7166,7 +7166,7 @@
         <v>-5.1998067795324676E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="16">
         <f t="shared" si="21"/>
         <v>43131</v>
@@ -7193,7 +7193,7 @@
         <v>2.5298844726693526E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="16">
         <f t="shared" si="21"/>
         <v>43159</v>
@@ -7220,7 +7220,7 @@
         <v>-3.8721617657161089E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="16">
         <f t="shared" si="21"/>
         <v>43190</v>
@@ -7247,7 +7247,7 @@
         <v>2.0356758220092974E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="16">
         <f t="shared" si="21"/>
         <v>43220</v>
@@ -7274,7 +7274,7 @@
         <v>1.0310255214453168E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="16">
         <f t="shared" si="21"/>
         <v>43251</v>
@@ -7301,7 +7301,7 @@
         <v>6.4589502666456688E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="16">
         <f t="shared" si="21"/>
         <v>43281</v>
@@ -7328,7 +7328,7 @@
         <v>1.1306494167108383E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="16">
         <f t="shared" si="21"/>
         <v>43312</v>
@@ -7355,7 +7355,7 @@
         <v>3.1576794445938416E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="16">
         <f t="shared" si="21"/>
         <v>43343</v>
@@ -7382,7 +7382,7 @@
         <v>4.8347775003671822E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="16">
         <f t="shared" si="21"/>
         <v>43373</v>
@@ -7409,7 +7409,7 @@
         <v>-3.1741195259309074E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="16">
         <f t="shared" si="21"/>
         <v>43404</v>
@@ -7436,7 +7436,7 @@
         <v>-0.10479228835476462</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="16">
         <f t="shared" si="21"/>
         <v>43434</v>
@@ -7463,7 +7463,7 @@
         <v>1.504362133000603E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="16">
         <f t="shared" si="21"/>
         <v>43465</v>
@@ -7490,7 +7490,7 @@
         <v>-0.12071565277481455</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="16">
         <f t="shared" si="21"/>
         <v>43496</v>
@@ -7517,7 +7517,7 @@
         <v>0.10635652878569091</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="16">
         <f t="shared" si="21"/>
         <v>43524</v>
@@ -7544,7 +7544,7 @@
         <v>4.3536366098953838E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="16">
         <f t="shared" si="21"/>
         <v>43555</v>
@@ -7571,7 +7571,7 @@
         <v>-3.3309832258793026E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="16">
         <f t="shared" si="21"/>
         <v>43585</v>
@@ -7598,7 +7598,7 @@
         <v>3.8737024853059854E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="16">
         <f t="shared" si="21"/>
         <v>43616</v>
@@ -7625,7 +7625,7 @@
         <v>-8.7282508352897636E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="16">
         <f t="shared" si="21"/>
         <v>43646</v>
@@ -7652,7 +7652,7 @@
         <v>7.4465317745957327E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="16">
         <f t="shared" si="21"/>
         <v>43677</v>
@@ -7679,7 +7679,7 @@
         <v>1.1366125092680202E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="16">
         <f t="shared" si="21"/>
         <v>43708</v>
@@ -7706,7 +7706,7 @@
         <v>-4.5080331009588748E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="16">
         <f t="shared" si="21"/>
         <v>43738</v>
@@ -7733,7 +7733,7 @@
         <v>3.3373079879012169E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="16">
         <f t="shared" si="21"/>
         <v>43769</v>
@@ -7760,7 +7760,7 @@
         <v>1.947484548998335E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="16">
         <f t="shared" si="21"/>
         <v>43799</v>
@@ -7787,7 +7787,7 @@
         <v>3.0647484266883795E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="16">
         <f t="shared" si="21"/>
         <v>43830</v>
@@ -7814,7 +7814,7 @@
         <v>2.9891077333422444E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="16">
         <f t="shared" si="21"/>
         <v>43861</v>
@@ -7841,7 +7841,7 @@
         <v>-3.9713967989900123E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="16">
         <f t="shared" si="21"/>
         <v>43890</v>
@@ -7868,7 +7868,7 @@
         <v>-9.6058491019546E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="16">
         <f t="shared" si="21"/>
         <v>43921</v>
@@ -7895,7 +7895,7 @@
         <v>-0.22396205000645641</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="16">
         <f t="shared" si="21"/>
         <v>43951</v>
@@ -7922,7 +7922,7 @@
         <v>0.12698906180213165</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="16">
         <f t="shared" si="21"/>
         <v>43982</v>
@@ -7949,7 +7949,7 @@
         <v>4.3075279261777455E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="16">
         <f t="shared" si="21"/>
         <v>44012</v>
@@ -7976,7 +7976,7 @@
         <v>3.7350793316732522E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="16">
         <f t="shared" si="21"/>
         <v>44043</v>
@@ -8003,7 +8003,7 @@
         <v>4.1097710410205268E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="16">
         <f t="shared" si="21"/>
         <v>44074</v>
@@ -8030,7 +8030,7 @@
         <v>3.9907358226354939E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="16">
         <f t="shared" si="21"/>
         <v>44104</v>
@@ -8057,7 +8057,7 @@
         <v>-4.7039098918921662E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="16">
         <f t="shared" si="21"/>
         <v>44135</v>
@@ -8084,7 +8084,7 @@
         <v>2.580293190218641E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="16">
         <f t="shared" si="21"/>
         <v>44165</v>
@@ -8111,7 +8111,7 @@
         <v>0.18172634300386026</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="16">
         <f t="shared" si="21"/>
         <v>44196</v>
@@ -8140,6 +8140,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="T8:T9"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="R21:S21"/>
     <mergeCell ref="R23:S23"/>
@@ -8153,13 +8160,6 @@
     <mergeCell ref="R25:S25"/>
     <mergeCell ref="R26:S26"/>
     <mergeCell ref="I5:O5"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="T8:T9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -8175,19 +8175,19 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="3" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="2.5546875" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="184" t="s">
         <v>65</v>
       </c>
@@ -8199,11 +8199,11 @@
       <c r="H1" s="184"/>
       <c r="I1" s="184"/>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="183" t="s">
         <v>18</v>
       </c>
@@ -8217,7 +8217,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>97</v>
       </c>
@@ -8237,7 +8237,7 @@
         <v>0.52210350751708712</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>51</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>0.24480049186585806</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>52</v>
       </c>
@@ -8277,7 +8277,7 @@
         <v>6.9330721006832671E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>98</v>
       </c>
@@ -8297,7 +8297,7 @@
         <v>5.7496319406555509E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E8" s="7" t="s">
         <v>126</v>
       </c>
@@ -8311,7 +8311,7 @@
         <v>4.7847346264161511E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C9" s="41"/>
       <c r="E9" s="7" t="s">
         <v>78</v>
@@ -8326,7 +8326,7 @@
         <v>3.389720242579463E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C10" s="41"/>
       <c r="E10" s="7" t="s">
         <v>75</v>
@@ -8341,7 +8341,7 @@
         <v>2.452441151371039E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E11" s="7" t="s">
         <v>151</v>
       </c>
@@ -8351,7 +8351,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E12" s="7" t="s">
         <v>152</v>
       </c>
@@ -8361,7 +8361,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E13" s="7" t="s">
         <v>99</v>
       </c>
@@ -8371,7 +8371,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G14" s="3"/>
       <c r="H14" s="7"/>
       <c r="I14" s="6"/>
@@ -8394,35 +8394,35 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" customWidth="1"/>
-    <col min="3" max="3" width="29.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" customWidth="1"/>
-    <col min="9" max="9" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.88671875" customWidth="1"/>
-    <col min="16" max="16" width="24.44140625" customWidth="1"/>
-    <col min="17" max="17" width="9.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="16" max="16" width="24.42578125" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="38.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:17" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="38.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:17" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="136" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="136" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="136" t="s">
         <v>153</v>
       </c>
@@ -8438,7 +8438,7 @@
       <c r="P5" s="109"/>
       <c r="Q5" s="109"/>
     </row>
-    <row r="6" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="136" t="s">
         <v>25</v>
       </c>
@@ -8454,7 +8454,7 @@
       <c r="P6" s="109"/>
       <c r="Q6" s="109"/>
     </row>
-    <row r="7" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="110" t="s">
         <v>26</v>
       </c>
@@ -8500,7 +8500,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="113" t="s">
         <v>58</v>
       </c>
@@ -8519,7 +8519,7 @@
       <c r="P8" s="109"/>
       <c r="Q8" s="109"/>
     </row>
-    <row r="9" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="113" t="s">
         <v>100</v>
       </c>
@@ -8542,7 +8542,7 @@
         <v>0.52210350751708712</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="115" t="s">
         <v>113</v>
       </c>
@@ -8590,7 +8590,7 @@
         <v>0.24480049186585806</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="115" t="s">
         <v>134</v>
       </c>
@@ -8638,7 +8638,7 @@
         <v>6.9330721006832671E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="115" t="s">
         <v>83</v>
       </c>
@@ -8686,7 +8686,7 @@
         <v>5.7496319406555509E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="115" t="s">
         <v>136</v>
       </c>
@@ -8734,7 +8734,7 @@
         <v>4.7847346264161511E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="115" t="s">
         <v>127</v>
       </c>
@@ -8782,7 +8782,7 @@
         <v>3.389720242579463E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="115" t="s">
         <v>76</v>
       </c>
@@ -8830,7 +8830,7 @@
         <v>2.452441151371039E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="115" t="s">
         <v>73</v>
       </c>
@@ -8878,7 +8878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="115" t="s">
         <v>88</v>
       </c>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="115" t="s">
         <v>132</v>
       </c>
@@ -8974,7 +8974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="115" t="s">
         <v>107</v>
       </c>
@@ -9022,7 +9022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="115" t="s">
         <v>105</v>
       </c>
@@ -9068,7 +9068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="115" t="s">
         <v>103</v>
       </c>
@@ -9110,7 +9110,7 @@
       <c r="P21" s="128"/>
       <c r="Q21" s="129"/>
     </row>
-    <row r="22" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="115" t="s">
         <v>101</v>
       </c>
@@ -9152,7 +9152,7 @@
       <c r="P22" s="109"/>
       <c r="Q22" s="109"/>
     </row>
-    <row r="23" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="115" t="s">
         <v>129</v>
       </c>
@@ -9194,7 +9194,7 @@
       <c r="P23" s="109"/>
       <c r="Q23" s="109"/>
     </row>
-    <row r="24" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="115" t="s">
         <v>90</v>
       </c>
@@ -9236,7 +9236,7 @@
       <c r="P24" s="109"/>
       <c r="Q24" s="109"/>
     </row>
-    <row r="25" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="115" t="s">
         <v>109</v>
       </c>
@@ -9278,7 +9278,7 @@
       <c r="P25" s="109"/>
       <c r="Q25" s="109"/>
     </row>
-    <row r="26" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="115" t="s">
         <v>111</v>
       </c>
@@ -9320,7 +9320,7 @@
       <c r="P26" s="109"/>
       <c r="Q26" s="109"/>
     </row>
-    <row r="27" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="115" t="s">
         <v>68</v>
       </c>
@@ -9362,7 +9362,7 @@
       <c r="P27" s="109"/>
       <c r="Q27" s="109"/>
     </row>
-    <row r="28" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="115" t="s">
         <v>71</v>
       </c>
@@ -9404,7 +9404,7 @@
       <c r="P28" s="109"/>
       <c r="Q28" s="109"/>
     </row>
-    <row r="29" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="115" t="s">
         <v>79</v>
       </c>
@@ -9446,7 +9446,7 @@
       <c r="P29" s="109"/>
       <c r="Q29" s="109"/>
     </row>
-    <row r="30" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="130" t="s">
         <v>115</v>
       </c>
@@ -9470,7 +9470,7 @@
       <c r="P30" s="109"/>
       <c r="Q30" s="109"/>
     </row>
-    <row r="31" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="113" t="s">
         <v>81</v>
       </c>
@@ -9490,7 +9490,7 @@
       <c r="P31" s="109"/>
       <c r="Q31" s="109"/>
     </row>
-    <row r="32" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="115" t="s">
         <v>116</v>
       </c>
@@ -9526,7 +9526,7 @@
       <c r="P32" s="109"/>
       <c r="Q32" s="109"/>
     </row>
-    <row r="33" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="130" t="s">
         <v>82</v>
       </c>
@@ -9550,7 +9550,7 @@
       <c r="P33" s="109"/>
       <c r="Q33" s="109"/>
     </row>
-    <row r="34" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="113" t="s">
         <v>157</v>
       </c>
@@ -9570,7 +9570,7 @@
       <c r="P34" s="109"/>
       <c r="Q34" s="109"/>
     </row>
-    <row r="35" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="115" t="s">
         <v>158</v>
       </c>
@@ -9612,7 +9612,7 @@
       <c r="P35" s="109"/>
       <c r="Q35" s="109"/>
     </row>
-    <row r="36" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="115" t="s">
         <v>161</v>
       </c>
@@ -9654,7 +9654,7 @@
       <c r="P36" s="109"/>
       <c r="Q36" s="109"/>
     </row>
-    <row r="37" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="130" t="s">
         <v>164</v>
       </c>
@@ -9678,7 +9678,7 @@
       <c r="P37" s="109"/>
       <c r="Q37" s="109"/>
     </row>
-    <row r="38" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="130" t="s">
         <v>61</v>
       </c>
@@ -9702,7 +9702,7 @@
       <c r="P38" s="109"/>
       <c r="Q38" s="109"/>
     </row>
-    <row r="39" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="136"/>
       <c r="B39" s="136"/>
       <c r="C39" s="136"/>
@@ -9720,7 +9720,7 @@
       <c r="P39" s="109"/>
       <c r="Q39" s="109"/>
     </row>
-    <row r="40" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="130" t="s">
         <v>61</v>
       </c>
@@ -9744,96 +9744,96 @@
       <c r="P40" s="109"/>
       <c r="Q40" s="109"/>
     </row>
-    <row r="41" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P41" s="109"/>
       <c r="Q41" s="109"/>
     </row>
-    <row r="42" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P42" s="109"/>
       <c r="Q42" s="109"/>
     </row>
-    <row r="43" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P43" s="109"/>
       <c r="Q43" s="109"/>
     </row>
-    <row r="44" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P44" s="109"/>
       <c r="Q44" s="109"/>
     </row>
-    <row r="45" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P45" s="109"/>
       <c r="Q45" s="109"/>
     </row>
-    <row r="46" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P46" s="109"/>
       <c r="Q46" s="109"/>
     </row>
-    <row r="47" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P47" s="109"/>
       <c r="Q47" s="109"/>
     </row>
-    <row r="48" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P48" s="109"/>
       <c r="Q48" s="109"/>
     </row>
-    <row r="49" spans="16:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="16:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P49" s="109"/>
       <c r="Q49" s="109"/>
     </row>
-    <row r="50" spans="16:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="16:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P50" s="109"/>
       <c r="Q50" s="109"/>
     </row>
-    <row r="51" spans="16:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="16:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P51" s="109"/>
       <c r="Q51" s="109"/>
     </row>
-    <row r="52" spans="16:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="16:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P52" s="109"/>
       <c r="Q52" s="109"/>
     </row>
-    <row r="65" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.5" header="0.25" footer="0.25"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -9847,7 +9847,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DA5B27-CFA3-433F-93F1-5D07CAB60B3B}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:C175"/>
   <sheetViews>
@@ -9855,14 +9855,14 @@
       <selection activeCell="A176" sqref="A176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="142" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="143"/>
-    <col min="3" max="3" width="16.109375" style="143" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="142" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="143"/>
+    <col min="3" max="3" width="16.140625" style="143" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
@@ -9873,7 +9873,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="142">
         <f>'CTV Fact Sheet Backup'!A2</f>
         <v>38929</v>
@@ -9887,7 +9887,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="142">
         <f>'CTV Fact Sheet Backup'!A3</f>
         <v>38960</v>
@@ -9901,7 +9901,7 @@
         <v>10172.203299535578</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="142">
         <f>'CTV Fact Sheet Backup'!A4</f>
         <v>38990</v>
@@ -9915,7 +9915,7 @@
         <v>10264.668233645991</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="142">
         <f>'CTV Fact Sheet Backup'!A5</f>
         <v>39021</v>
@@ -9929,7 +9929,7 @@
         <v>10772.917072593236</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="142">
         <f>'CTV Fact Sheet Backup'!A6</f>
         <v>39051</v>
@@ -9943,7 +9943,7 @@
         <v>11071.325511590796</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="142">
         <f>'CTV Fact Sheet Backup'!A7</f>
         <v>39082</v>
@@ -9957,7 +9957,7 @@
         <v>11069.67303077314</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="142">
         <f>'CTV Fact Sheet Backup'!A8</f>
         <v>39113</v>
@@ -9971,7 +9971,7 @@
         <v>11297.56740025305</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="142">
         <f>'CTV Fact Sheet Backup'!A9</f>
         <v>39141</v>
@@ -9985,7 +9985,7 @@
         <v>11236.252962750123</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="142">
         <f>'CTV Fact Sheet Backup'!A10</f>
         <v>39172</v>
@@ -9999,7 +9999,7 @@
         <v>11424.635775963063</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="142">
         <f>'CTV Fact Sheet Backup'!A11</f>
         <v>39202</v>
@@ -10013,7 +10013,7 @@
         <v>11679.315133024704</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="142">
         <f>'CTV Fact Sheet Backup'!A12</f>
         <v>39233</v>
@@ -10027,7 +10027,7 @@
         <v>12216.963332190573</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="142">
         <f>'CTV Fact Sheet Backup'!A13</f>
         <v>39263</v>
@@ -10041,7 +10041,7 @@
         <v>12016.889833790026</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="142">
         <f>'CTV Fact Sheet Backup'!A14</f>
         <v>39294</v>
@@ -10055,7 +10055,7 @@
         <v>11410.454037602571</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="142">
         <f>'CTV Fact Sheet Backup'!A15</f>
         <v>39325</v>
@@ -10069,7 +10069,7 @@
         <v>11624.339315971598</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="142">
         <f>'CTV Fact Sheet Backup'!A16</f>
         <v>39355</v>
@@ -10083,7 +10083,7 @@
         <v>11797.578499004814</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="142">
         <f>'CTV Fact Sheet Backup'!A17</f>
         <v>39386</v>
@@ -10097,7 +10097,7 @@
         <v>12017.062481039635</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="142">
         <f>'CTV Fact Sheet Backup'!A18</f>
         <v>39416</v>
@@ -10111,7 +10111,7 @@
         <v>11125.166789575069</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="142">
         <f>'CTV Fact Sheet Backup'!A19</f>
         <v>39447</v>
@@ -10125,7 +10125,7 @@
         <v>11036.845389455202</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="142">
         <f>'CTV Fact Sheet Backup'!A20</f>
         <v>39478</v>
@@ -10139,7 +10139,7 @@
         <v>10497.076095508462</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="142">
         <f>'CTV Fact Sheet Backup'!A21</f>
         <v>39507</v>
@@ -10153,7 +10153,7 @@
         <v>10173.806452567638</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="142">
         <f>'CTV Fact Sheet Backup'!A22</f>
         <v>39538</v>
@@ -10167,7 +10167,7 @@
         <v>10213.194689370606</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="142">
         <f>'CTV Fact Sheet Backup'!A23</f>
         <v>39568</v>
@@ -10181,7 +10181,7 @@
         <v>10623.108587720837</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="142">
         <f>'CTV Fact Sheet Backup'!A24</f>
         <v>39599</v>
@@ -10195,7 +10195,7 @@
         <v>11092.339148257131</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="142">
         <f>'CTV Fact Sheet Backup'!A25</f>
         <v>39629</v>
@@ -10209,7 +10209,7 @@
         <v>10254.334062562435</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="142">
         <f>'CTV Fact Sheet Backup'!A26</f>
         <v>39660</v>
@@ -10223,7 +10223,7 @@
         <v>10466.024254472186</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="142">
         <f>'CTV Fact Sheet Backup'!A27</f>
         <v>39691</v>
@@ -10237,7 +10237,7 @@
         <v>10903.167090474564</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="142">
         <f>'CTV Fact Sheet Backup'!A28</f>
         <v>39721</v>
@@ -10251,7 +10251,7 @@
         <v>10166.678587548193</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="142">
         <f>'CTV Fact Sheet Backup'!A29</f>
         <v>39752</v>
@@ -10265,7 +10265,7 @@
         <v>8118.3669543298747</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="142">
         <f>'CTV Fact Sheet Backup'!A30</f>
         <v>39782</v>
@@ -10279,7 +10279,7 @@
         <v>7169.8676288873403</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="142">
         <f>'CTV Fact Sheet Backup'!A31</f>
         <v>39813</v>
@@ -10293,7 +10293,7 @@
         <v>7607.3064316033287</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="142">
         <f>'CTV Fact Sheet Backup'!A32</f>
         <v>39844</v>
@@ -10307,7 +10307,7 @@
         <v>6641.1477589153828</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="142">
         <f>'CTV Fact Sheet Backup'!A33</f>
         <v>39872</v>
@@ -10321,7 +10321,7 @@
         <v>5845.9098633373715</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="142">
         <f>'CTV Fact Sheet Backup'!A34</f>
         <v>39903</v>
@@ -10335,7 +10335,7 @@
         <v>6326.1158561700449</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="142">
         <f>'CTV Fact Sheet Backup'!A35</f>
         <v>39933</v>
@@ -10349,7 +10349,7 @@
         <v>7430.4416563283867</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="142">
         <f>'CTV Fact Sheet Backup'!A36</f>
         <v>39964</v>
@@ -10363,7 +10363,7 @@
         <v>7550.1848558765441</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="142">
         <f>'CTV Fact Sheet Backup'!A37</f>
         <v>39994</v>
@@ -10377,7 +10377,7 @@
         <v>7658.5333369507061</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="142">
         <f>'CTV Fact Sheet Backup'!A38</f>
         <v>40025</v>
@@ -10391,7 +10391,7 @@
         <v>8449.3070679317607</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="142">
         <f>'CTV Fact Sheet Backup'!A39</f>
         <v>40056</v>
@@ -10405,7 +10405,7 @@
         <v>8642.6473235976737</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="142">
         <f>'CTV Fact Sheet Backup'!A40</f>
         <v>40086</v>
@@ -10419,7 +10419,7 @@
         <v>9087.5099580467195</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="142">
         <f>'CTV Fact Sheet Backup'!A41</f>
         <v>40117</v>
@@ -10433,7 +10433,7 @@
         <v>8569.8641759423463</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="142">
         <f>'CTV Fact Sheet Backup'!A42</f>
         <v>40147</v>
@@ -10447,7 +10447,7 @@
         <v>8793.4670280749087</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="142">
         <f>'CTV Fact Sheet Backup'!A43</f>
         <v>40178</v>
@@ -10461,7 +10461,7 @@
         <v>9552.4736651284602</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="142">
         <f>'CTV Fact Sheet Backup'!A44</f>
         <v>40209</v>
@@ -10475,7 +10475,7 @@
         <v>9229.2286860804361</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="142">
         <f>'CTV Fact Sheet Backup'!A45</f>
         <v>40237</v>
@@ -10489,7 +10489,7 @@
         <v>9625.7747545326056</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="142">
         <f>'CTV Fact Sheet Backup'!A46</f>
         <v>40268</v>
@@ -10503,7 +10503,7 @@
         <v>10374.792515001811</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="142">
         <f>'CTV Fact Sheet Backup'!A47</f>
         <v>40298</v>
@@ -10517,7 +10517,7 @@
         <v>10981.548941795678</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="142">
         <f>'CTV Fact Sheet Backup'!A48</f>
         <v>40329</v>
@@ -10531,7 +10531,7 @@
         <v>10188.728107712152</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="142">
         <f>'CTV Fact Sheet Backup'!A49</f>
         <v>40359</v>
@@ -10545,7 +10545,7 @@
         <v>9468.6657573911507</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="142">
         <f>'CTV Fact Sheet Backup'!A50</f>
         <v>40390</v>
@@ -10559,7 +10559,7 @@
         <v>10069.157555413598</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="142">
         <f>'CTV Fact Sheet Backup'!A51</f>
         <v>40421</v>
@@ -10573,7 +10573,7 @@
         <v>9317.5254223075008</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="142">
         <f>'CTV Fact Sheet Backup'!A52</f>
         <v>40451</v>
@@ -10587,7 +10587,7 @@
         <v>10379.72529356198</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="142">
         <f>'CTV Fact Sheet Backup'!A53</f>
         <v>40482</v>
@@ -10601,7 +10601,7 @@
         <v>10821.381621946914</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="142">
         <f>'CTV Fact Sheet Backup'!A54</f>
         <v>40512</v>
@@ -10615,7 +10615,7 @@
         <v>11207.100241459504</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="142">
         <f>'CTV Fact Sheet Backup'!A55</f>
         <v>40543</v>
@@ -10629,7 +10629,7 @@
         <v>12065.527030393308</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="142">
         <f>'CTV Fact Sheet Backup'!A56</f>
         <v>40574</v>
@@ -10643,7 +10643,7 @@
         <v>12083.827638851546</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="142">
         <f>'CTV Fact Sheet Backup'!A57</f>
         <v>40602</v>
@@ -10657,7 +10657,7 @@
         <v>12616.395076100438</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="142">
         <f>'CTV Fact Sheet Backup'!A58</f>
         <v>40633</v>
@@ -10671,7 +10671,7 @@
         <v>12995.997050198415</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="142">
         <f>'CTV Fact Sheet Backup'!A59</f>
         <v>40663</v>
@@ -10685,7 +10685,7 @@
         <v>13333.793725998943</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="142">
         <f>'CTV Fact Sheet Backup'!A60</f>
         <v>40694</v>
@@ -10699,7 +10699,7 @@
         <v>13213.655904165971</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="142">
         <f>'CTV Fact Sheet Backup'!A61</f>
         <v>40724</v>
@@ -10713,7 +10713,7 @@
         <v>12974.687446818472</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="142">
         <f>'CTV Fact Sheet Backup'!A62</f>
         <v>40755</v>
@@ -10727,7 +10727,7 @@
         <v>12558.410264125621</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="142">
         <f>'CTV Fact Sheet Backup'!A63</f>
         <v>40786</v>
@@ -10741,7 +10741,7 @@
         <v>11594.841300181766</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="142">
         <f>'CTV Fact Sheet Backup'!A64</f>
         <v>40816</v>
@@ -10755,7 +10755,7 @@
         <v>10401.848805404348</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="142">
         <f>'CTV Fact Sheet Backup'!A65</f>
         <v>40847</v>
@@ -10769,7 +10769,7 @@
         <v>11961.692041701703</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="142">
         <f>'CTV Fact Sheet Backup'!A66</f>
         <v>40877</v>
@@ -10783,7 +10783,7 @@
         <v>12037.237545350727</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="142">
         <f>'CTV Fact Sheet Backup'!A67</f>
         <v>40908</v>
@@ -10797,7 +10797,7 @@
         <v>12188.081913720762</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="142">
         <f>'CTV Fact Sheet Backup'!A68</f>
         <v>40939</v>
@@ -10811,7 +10811,7 @@
         <v>12989.831076998198</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="142">
         <f>'CTV Fact Sheet Backup'!A69</f>
         <v>40968</v>
@@ -10825,7 +10825,7 @@
         <v>13264.586842799739</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="142">
         <f>'CTV Fact Sheet Backup'!A70</f>
         <v>40999</v>
@@ -10839,7 +10839,7 @@
         <v>13649.146259350691</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="142">
         <f>'CTV Fact Sheet Backup'!A71</f>
         <v>41029</v>
@@ -10853,7 +10853,7 @@
         <v>13476.893632029512</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="142">
         <f>'CTV Fact Sheet Backup'!A72</f>
         <v>41060</v>
@@ -10867,7 +10867,7 @@
         <v>12631.834672993771</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="142">
         <f>'CTV Fact Sheet Backup'!A73</f>
         <v>41090</v>
@@ -10881,7 +10881,7 @@
         <v>13160.307904037718</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="142">
         <f>'CTV Fact Sheet Backup'!A74</f>
         <v>41121</v>
@@ -10895,7 +10895,7 @@
         <v>13059.457246375016</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="142">
         <f>'CTV Fact Sheet Backup'!A75</f>
         <v>41152</v>
@@ -10909,7 +10909,7 @@
         <v>13554.264263745794</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="142">
         <f>'CTV Fact Sheet Backup'!A76</f>
         <v>41182</v>
@@ -10923,7 +10923,7 @@
         <v>13870.406041667169</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="142">
         <f>'CTV Fact Sheet Backup'!A77</f>
         <v>41213</v>
@@ -10937,7 +10937,7 @@
         <v>13588.793713666992</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="142">
         <f>'CTV Fact Sheet Backup'!A78</f>
         <v>41243</v>
@@ -10951,7 +10951,7 @@
         <v>13724.445124071703</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="142">
         <f>'CTV Fact Sheet Backup'!A79</f>
         <v>41274</v>
@@ -10965,7 +10965,7 @@
         <v>14177.816801537043</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="142">
         <f>'CTV Fact Sheet Backup'!A80</f>
         <v>41305</v>
@@ -10979,7 +10979,7 @@
         <v>14997.101992595888</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="142">
         <f>'CTV Fact Sheet Backup'!A81</f>
         <v>41333</v>
@@ -10993,7 +10993,7 @@
         <v>15208.200251078419</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="142">
         <f>'CTV Fact Sheet Backup'!A82</f>
         <v>41364</v>
@@ -11007,7 +11007,7 @@
         <v>15852.396467143983</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="142">
         <f>'CTV Fact Sheet Backup'!A83</f>
         <v>41394</v>
@@ -11021,7 +11021,7 @@
         <v>15810.24587434732</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="142">
         <f>'CTV Fact Sheet Backup'!A84</f>
         <v>41425</v>
@@ -11035,7 +11035,7 @@
         <v>16497.628566707186</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="142">
         <f>'CTV Fact Sheet Backup'!A85</f>
         <v>41455</v>
@@ -11049,7 +11049,7 @@
         <v>16473.55660733355</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="142">
         <f>'CTV Fact Sheet Backup'!A86</f>
         <v>41486</v>
@@ -11063,7 +11063,7 @@
         <v>17601.1157945103</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="142">
         <f>'CTV Fact Sheet Backup'!A87</f>
         <v>41517</v>
@@ -11077,7 +11077,7 @@
         <v>17172.309354274614</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="142">
         <f>'CTV Fact Sheet Backup'!A88</f>
         <v>41547</v>
@@ -11091,7 +11091,7 @@
         <v>18241.563098870138</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="142">
         <f>'CTV Fact Sheet Backup'!A89</f>
         <v>41578</v>
@@ -11105,7 +11105,7 @@
         <v>18899.645086582586</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="142">
         <f>'CTV Fact Sheet Backup'!A90</f>
         <v>41608</v>
@@ -11119,7 +11119,7 @@
         <v>19749.316193572085</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="142">
         <f>'CTV Fact Sheet Backup'!A91</f>
         <v>41639</v>
@@ -11133,7 +11133,7 @@
         <v>20035.146047241207</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="142">
         <f>'CTV Fact Sheet Backup'!A92</f>
         <v>41670</v>
@@ -11147,7 +11147,7 @@
         <v>19262.401621897578</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="142">
         <f>'CTV Fact Sheet Backup'!A93</f>
         <v>41698</v>
@@ -11161,7 +11161,7 @@
         <v>20120.877738616982</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="142">
         <f>'CTV Fact Sheet Backup'!A94</f>
         <v>41729</v>
@@ -11175,7 +11175,7 @@
         <v>20261.313944225058</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="142">
         <f>'CTV Fact Sheet Backup'!A95</f>
         <v>41759</v>
@@ -11189,7 +11189,7 @@
         <v>19695.820210087026</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="142">
         <f>'CTV Fact Sheet Backup'!A96</f>
         <v>41790</v>
@@ -11203,7 +11203,7 @@
         <v>19748.995562965672</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="142">
         <f>'CTV Fact Sheet Backup'!A97</f>
         <v>41820</v>
@@ -11217,7 +11217,7 @@
         <v>20680.082180090802</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="142">
         <f>'CTV Fact Sheet Backup'!A98</f>
         <v>41851</v>
@@ -11231,7 +11231,7 @@
         <v>19543.79197486255</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="142">
         <f>'CTV Fact Sheet Backup'!A99</f>
         <v>41882</v>
@@ -11245,7 +11245,7 @@
         <v>20383.202902446894</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="142">
         <f>'CTV Fact Sheet Backup'!A100</f>
         <v>41912</v>
@@ -11259,7 +11259,7 @@
         <v>19289.087953908107</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="142">
         <f>'CTV Fact Sheet Backup'!A101</f>
         <v>41943</v>
@@ -11273,7 +11273,7 @@
         <v>20656.306187430775</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="142">
         <f>'CTV Fact Sheet Backup'!A102</f>
         <v>41973</v>
@@ -11287,7 +11287,7 @@
         <v>20599.529906203206</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="142">
         <f>'CTV Fact Sheet Backup'!A103</f>
         <v>42004</v>
@@ -11301,7 +11301,7 @@
         <v>21188.183035681246</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="142">
         <f>'CTV Fact Sheet Backup'!A104</f>
         <v>42035</v>
@@ -11315,7 +11315,7 @@
         <v>20447.748309906739</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="142">
         <f>'CTV Fact Sheet Backup'!A105</f>
         <v>42063</v>
@@ -11329,7 +11329,7 @@
         <v>21680.646983235943</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="142">
         <f>'CTV Fact Sheet Backup'!A106</f>
         <v>42094</v>
@@ -11343,7 +11343,7 @@
         <v>22028.062577228808</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="142">
         <f>'CTV Fact Sheet Backup'!A107</f>
         <v>42124</v>
@@ -11357,7 +11357,7 @@
         <v>21515.867515433427</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="142">
         <f>'CTV Fact Sheet Backup'!A108</f>
         <v>42155</v>
@@ -11371,7 +11371,7 @@
         <v>21845.475778824071</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="142">
         <f>'CTV Fact Sheet Backup'!A109</f>
         <v>42185</v>
@@ -11385,7 +11385,7 @@
         <v>22070.31182559668</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="142">
         <f>'CTV Fact Sheet Backup'!A110</f>
         <v>42216</v>
@@ -11399,7 +11399,7 @@
         <v>21883.310190380587</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="142">
         <f>'CTV Fact Sheet Backup'!A111</f>
         <v>42247</v>
@@ -11413,7 +11413,7 @@
         <v>20750.472930144457</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="142">
         <f>'CTV Fact Sheet Backup'!A112</f>
         <v>42277</v>
@@ -11427,7 +11427,7 @@
         <v>20024.441917765649</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="142">
         <f>'CTV Fact Sheet Backup'!A113</f>
         <v>42308</v>
@@ -11441,7 +11441,7 @@
         <v>21245.08263637283</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="142">
         <f>'CTV Fact Sheet Backup'!A114</f>
         <v>42338</v>
@@ -11455,7 +11455,7 @@
         <v>21814.103307181387</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="142">
         <f>'CTV Fact Sheet Backup'!A115</f>
         <v>42369</v>
@@ -11469,7 +11469,7 @@
         <v>20770.22870827794</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="142">
         <f>'CTV Fact Sheet Backup'!A116</f>
         <v>42400</v>
@@ -11483,7 +11483,7 @@
         <v>19489.136788415861</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="142">
         <f>'CTV Fact Sheet Backup'!A117</f>
         <v>42429</v>
@@ -11497,7 +11497,7 @@
         <v>19706.918961847423</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="142">
         <f>'CTV Fact Sheet Backup'!A118</f>
         <v>42460</v>
@@ -11511,7 +11511,7 @@
         <v>21322.354612517913</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="142">
         <f>'CTV Fact Sheet Backup'!A119</f>
         <v>42490</v>
@@ -11525,7 +11525,7 @@
         <v>21572.717788339403</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="142">
         <f>'CTV Fact Sheet Backup'!A120</f>
         <v>42521</v>
@@ -11539,7 +11539,7 @@
         <v>21930.492217308623</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="142">
         <f>'CTV Fact Sheet Backup'!A121</f>
         <v>42551</v>
@@ -11553,7 +11553,7 @@
         <v>22063.652574540447</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="142">
         <f>'CTV Fact Sheet Backup'!A122</f>
         <v>42582</v>
@@ -11567,7 +11567,7 @@
         <v>23186.821588798641</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="142">
         <f>'CTV Fact Sheet Backup'!A123</f>
         <v>42613</v>
@@ -11581,7 +11581,7 @@
         <v>23501.335549795163</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="142">
         <f>'CTV Fact Sheet Backup'!A124</f>
         <v>42643</v>
@@ -11595,7 +11595,7 @@
         <v>23652.475884878811</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="142">
         <f>'CTV Fact Sheet Backup'!A125</f>
         <v>42674</v>
@@ -11609,7 +11609,7 @@
         <v>22593.87694197326</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="142">
         <f>'CTV Fact Sheet Backup'!A126</f>
         <v>42704</v>
@@ -11623,7 +11623,7 @@
         <v>25429.287386145304</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="142">
         <f>'CTV Fact Sheet Backup'!A127</f>
         <v>42735</v>
@@ -11637,7 +11637,7 @@
         <v>26285.938374797453</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="142">
         <f>'CTV Fact Sheet Backup'!A128</f>
         <v>42766</v>
@@ -11651,7 +11651,7 @@
         <v>26181.363469321823</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="142">
         <f>'CTV Fact Sheet Backup'!A129</f>
         <v>42794</v>
@@ -11665,7 +11665,7 @@
         <v>26598.133929870688</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="142">
         <f>'CTV Fact Sheet Backup'!A130</f>
         <v>42825</v>
@@ -11679,7 +11679,7 @@
         <v>26565.60225526636</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="142">
         <f>'CTV Fact Sheet Backup'!A131</f>
         <v>42855</v>
@@ -11693,7 +11693,7 @@
         <v>26805.285965505082</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="142">
         <f>'CTV Fact Sheet Backup'!A132</f>
         <v>42886</v>
@@ -11707,7 +11707,7 @@
         <v>26235.00743616368</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="142">
         <f>'CTV Fact Sheet Backup'!A133</f>
         <v>42916</v>
@@ -11721,7 +11721,7 @@
         <v>27020.355110728542</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="142">
         <f>'CTV Fact Sheet Backup'!A134</f>
         <v>42947</v>
@@ -11735,7 +11735,7 @@
         <v>27282.063677238428</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="142">
         <f>'CTV Fact Sheet Backup'!A135</f>
         <v>42978</v>
@@ -11749,7 +11749,7 @@
         <v>26582.225719014128</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="142">
         <f>'CTV Fact Sheet Backup'!A136</f>
         <v>43008</v>
@@ -11763,7 +11763,7 @@
         <v>28631.375924587679</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="142">
         <f>'CTV Fact Sheet Backup'!A137</f>
         <v>43039</v>
@@ -11777,7 +11777,7 @@
         <v>28902.974712110707</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="142">
         <f>'CTV Fact Sheet Backup'!A138</f>
         <v>43069</v>
@@ -11791,7 +11791,7 @@
         <v>29920.310962360429</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="142">
         <f>'CTV Fact Sheet Backup'!A139</f>
         <v>43100</v>
@@ -11805,7 +11805,7 @@
         <v>29764.731126572628</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="142">
         <f>'CTV Fact Sheet Backup'!A140</f>
         <v>43131</v>
@@ -11819,7 +11819,7 @@
         <v>30517.74443767557</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="142">
         <f>'CTV Fact Sheet Backup'!A141</f>
         <v>43159</v>
@@ -11833,7 +11833,7 @@
         <v>29336.048005800942</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="142">
         <f>'CTV Fact Sheet Backup'!A142</f>
         <v>43190</v>
@@ -11847,7 +11847,7 @@
         <v>29933.234842188071</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="142">
         <f>'CTV Fact Sheet Backup'!A143</f>
         <v>43220</v>
@@ -11861,7 +11861,7 @@
         <v>30241.854132805191</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="142">
         <f>'CTV Fact Sheet Backup'!A144</f>
         <v>43251</v>
@@ -11875,7 +11875,7 @@
         <v>32195.160450954605</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="142">
         <f>'CTV Fact Sheet Backup'!A145</f>
         <v>43281</v>
@@ -11889,7 +11889,7 @@
         <v>32559.174844802441</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="142">
         <f>'CTV Fact Sheet Backup'!A146</f>
         <v>43312</v>
@@ -11903,7 +11903,7 @@
         <v>33587.28921620614</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="142">
         <f>'CTV Fact Sheet Backup'!A147</f>
         <v>43343</v>
@@ -11917,7 +11917,7 @@
         <v>35211.159918214529</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="142">
         <f>'CTV Fact Sheet Backup'!A148</f>
         <v>43373</v>
@@ -11931,7 +11931,7 @@
         <v>34093.515615943725</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="142">
         <f>'CTV Fact Sheet Backup'!A149</f>
         <v>43404</v>
@@ -11945,7 +11945,7 @@
         <v>30520.778096490081</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="142">
         <f>'CTV Fact Sheet Backup'!A150</f>
         <v>43434</v>
@@ -11959,7 +11959,7 @@
         <v>30979.92112487082</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="142">
         <f>'CTV Fact Sheet Backup'!A151</f>
         <v>43465</v>
@@ -11973,7 +11973,7 @@
         <v>27240.159723369772</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="142">
         <f>'CTV Fact Sheet Backup'!A152</f>
         <v>43496</v>
@@ -11987,7 +11987,7 @@
         <v>30137.328555115168</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="142">
         <f>'CTV Fact Sheet Backup'!A153</f>
         <v>43524</v>
@@ -12001,7 +12001,7 @@
         <v>31449.398324335118</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="142">
         <f>'CTV Fact Sheet Backup'!A154</f>
         <v>43555</v>
@@ -12015,7 +12015,7 @@
         <v>30401.824141511548</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="142">
         <f>'CTV Fact Sheet Backup'!A155</f>
         <v>43585</v>
@@ -12029,7 +12029,7 @@
         <v>31579.500358859637</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="142">
         <f>'CTV Fact Sheet Backup'!A156</f>
         <v>43616</v>
@@ -12043,7 +12043,7 @@
         <v>28823.162355007138</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="142">
         <f>'CTV Fact Sheet Backup'!A157</f>
         <v>43646</v>
@@ -12057,7 +12057,7 @@
         <v>30969.48829821606</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="142">
         <f>'CTV Fact Sheet Backup'!A158</f>
         <v>43677</v>
@@ -12071,7 +12071,7 @@
         <v>31321.491376269878</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="142">
         <f>'CTV Fact Sheet Backup'!A159</f>
         <v>43708</v>
@@ -12085,7 +12085,7 @@
         <v>29909.508177313652</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="142">
         <f>'CTV Fact Sheet Backup'!A160</f>
         <v>43738</v>
@@ -12099,7 +12099,7 @@
         <v>30907.680582857109</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="142">
         <f>'CTV Fact Sheet Backup'!A161</f>
         <v>43769</v>
@@ -12113,7 +12113,7 @@
         <v>31509.602886662011</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="142">
         <f>'CTV Fact Sheet Backup'!A162</f>
         <v>43799</v>
@@ -12127,7 +12127,7 @@
         <v>32475.29294538674</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="142">
         <f>'CTV Fact Sheet Backup'!A163</f>
         <v>43830</v>
@@ -12141,7 +12141,7 @@
         <v>33446.014438242841</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="142">
         <f>'CTV Fact Sheet Backup'!A164</f>
         <v>43861</v>
@@ -12155,7 +12155,7 @@
         <v>32117.740491452729</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="142">
         <f>'CTV Fact Sheet Backup'!A165</f>
         <v>43890</v>
@@ -12169,7 +12169,7 @@
         <v>29032.558804886408</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="142">
         <f>'CTV Fact Sheet Backup'!A166</f>
         <v>43921</v>
@@ -12183,7 +12183,7 @@
         <v>22530.367418011054</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="142">
         <f>'CTV Fact Sheet Backup'!A167</f>
         <v>43951</v>
@@ -12197,7 +12197,7 @@
         <v>25391.477638481592</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="142">
         <f>'CTV Fact Sheet Backup'!A168</f>
         <v>43982</v>
@@ -12211,7 +12211,7 @@
         <v>26485.222628628366</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="142">
         <f>'CTV Fact Sheet Backup'!A169</f>
         <v>44012</v>
@@ -12225,7 +12225,7 @@
         <v>27474.466704977913</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="142">
         <f>'CTV Fact Sheet Backup'!A170</f>
         <v>44043</v>
@@ -12239,7 +12239,7 @@
         <v>28603.604381293921</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="142">
         <f>'CTV Fact Sheet Backup'!A171</f>
         <v>44074</v>
@@ -12253,7 +12253,7 @@
         <v>29745.098667903152</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="142">
         <f>'CTV Fact Sheet Backup'!A172</f>
         <v>44104</v>
@@ -12267,7 +12267,7 @@
         <v>28345.916029310571</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="142">
         <f>'CTV Fact Sheet Backup'!A173</f>
         <v>44135</v>
@@ -12281,7 +12281,7 @@
         <v>29077.323770319967</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="142">
         <f>'CTV Fact Sheet Backup'!A174</f>
         <v>44165</v>
@@ -12295,7 +12295,7 @@
         <v>34361.439483439433</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="142">
         <f>'CTV Fact Sheet Backup'!A175</f>
         <v>44196</v>
@@ -12318,22 +12318,22 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD94FF22-9C00-4BDB-8A2F-ABEA6EACDF0A}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A176" sqref="A176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="9.109375" style="143"/>
-    <col min="7" max="7" width="9.44140625" style="143" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="9.140625" style="143"/>
+    <col min="7" max="7" width="9.42578125" style="143" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="144" t="str">
         <f>'CTV Fact Sheet Backup'!I15</f>
         <v>Share Class/Benchmark</v>
@@ -12366,7 +12366,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="144" t="str">
         <f>'CTV Fact Sheet Backup'!I16</f>
         <v>Class A</v>
@@ -12399,7 +12399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="144" t="str">
         <f>'CTV Fact Sheet Backup'!I17</f>
         <v>Class C</v>
@@ -12432,7 +12432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="144" t="s">
         <v>146</v>
       </c>
@@ -12464,7 +12464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="144" t="s">
         <v>13</v>
       </c>
@@ -12505,21 +12505,21 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC763C2-9765-4462-9590-E44DB0538399}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A176" sqref="A176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="143" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>85</v>
       </c>
@@ -12534,7 +12534,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'CTV Fact Sheet Backup'!I8</f>
         <v>Cumulative Return</v>
@@ -12551,7 +12551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -12567,7 +12567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>119</v>
       </c>
@@ -12583,7 +12583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>120</v>
       </c>
@@ -12599,7 +12599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>121</v>
       </c>
@@ -12623,19 +12623,21 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC8522D-528E-41FA-BE1B-2A29E16092DD}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A176" sqref="A176"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="146"/>
+    <col min="2" max="2" width="9.140625" style="146"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>85</v>
       </c>
@@ -12646,7 +12648,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'CTV Portfolio'!E4</f>
         <v>XPEL Inc</v>
@@ -12659,7 +12661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>'CTV Portfolio'!E5</f>
         <v>Cerence Inc</v>
@@ -12672,7 +12674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'CTV Portfolio'!E6</f>
         <v>Exponent Inc</v>
@@ -12685,7 +12687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>'CTV Portfolio'!E7</f>
         <v>Stitch Fix Inc</v>
@@ -12698,7 +12700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>'CTV Portfolio'!E8</f>
         <v>Fiverr International Ltd</v>
@@ -12711,7 +12713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>'CTV Portfolio'!E9</f>
         <v>Mimecast Ltd</v>
@@ -12724,7 +12726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>'CTV Portfolio'!E10</f>
         <v>CyberArk Software Ltd</v>
@@ -12737,7 +12739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>'CTV Portfolio'!E11</f>
         <v>Everbridge Inc</v>
@@ -12750,7 +12752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>'CTV Portfolio'!E12</f>
         <v>Digital Turbine Inc</v>
@@ -12763,7 +12765,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>'CTV Portfolio'!E13</f>
         <v>Upland Software Inc</v>
@@ -12784,21 +12786,21 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{966BD172-6E50-4F4E-A734-7AB5F236DE20}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="A176" sqref="A176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="146"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="146"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>85</v>
       </c>
@@ -12809,7 +12811,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'CTV Portfolio'!H4</f>
         <v>Information Technology</v>
@@ -12822,7 +12824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>'CTV Portfolio'!H5</f>
         <v>Consumer Discretionary</v>
@@ -12835,7 +12837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'CTV Portfolio'!H6</f>
         <v>Industrials</v>
@@ -12848,7 +12850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>'CTV Portfolio'!H7</f>
         <v>Health Care</v>
@@ -12861,7 +12863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>'CTV Portfolio'!H8</f>
         <v>Real Estate</v>
@@ -12874,7 +12876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>'CTV Portfolio'!H9</f>
         <v>Cash</v>
@@ -12887,7 +12889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>'CTV Portfolio'!H10</f>
         <v>Communication Services</v>
@@ -12908,21 +12910,21 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2DD6C7E-04A6-4B22-940C-D43226E7DEFA}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A176" sqref="A176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="147"/>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="147"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>85</v>
       </c>
@@ -12933,7 +12935,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>122</v>
       </c>
@@ -12945,7 +12947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>'CTV Portfolio'!B5</f>
         <v>Average Market Cap: $B</v>
@@ -12958,7 +12960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'CTV Portfolio'!B6</f>
         <v>Median Market Cap: $B</v>
@@ -12971,7 +12973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>123</v>
       </c>
